--- a/data/trans_bre/P2A_enfcro_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>10.18703309625891</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10.62848579254432</v>
+        <v>10.62848579254433</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.407951475568559</v>
@@ -649,7 +649,7 @@
         <v>0.1900190795354833</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2637971637876016</v>
+        <v>0.2637971637876019</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>15.2358903769055</v>
+        <v>15.63293210531831</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>13.94359772149335</v>
+        <v>13.82436206084691</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.580984729098614</v>
+        <v>5.955191625383334</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.042255325329754</v>
+        <v>4.803902770528279</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2877993749788074</v>
+        <v>0.2929216116636933</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2539341668327031</v>
+        <v>0.2532352591532699</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1188205118798795</v>
+        <v>0.1082176348422887</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.08728625771463441</v>
+        <v>0.1107276012084645</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>25.52925739885193</v>
+        <v>25.86998295929295</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>22.14627317588259</v>
+        <v>22.09733190671103</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.45623942838141</v>
+        <v>14.493859396704</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.52856943240571</v>
+        <v>16.86369968179567</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5592700252935263</v>
+        <v>0.5625795847912324</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4431029302263134</v>
+        <v>0.449510629567448</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2828677759883239</v>
+        <v>0.2844052427467386</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.455208689306</v>
+        <v>0.4653765285644339</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>12.83009126866314</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.594245389320632</v>
+        <v>8.594245389320626</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2799892367817651</v>
@@ -749,7 +749,7 @@
         <v>0.2616026173943497</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.235208813904651</v>
+        <v>0.2352088139046508</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9.170000082879278</v>
+        <v>8.707848077992187</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.713433655766176</v>
+        <v>8.027520912221568</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8.479476979721708</v>
+        <v>8.366756550481327</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.133486596615162</v>
+        <v>4.535113848532449</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1909769150827673</v>
+        <v>0.1781882030102013</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1298798568899803</v>
+        <v>0.1374879730514383</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1652513397882968</v>
+        <v>0.1595988441500553</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1077463297001198</v>
+        <v>0.1201818442884341</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.02160330049911</v>
+        <v>17.10567734629779</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.53096303149677</v>
+        <v>17.06872400689551</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.32972652591407</v>
+        <v>17.60299129501949</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.89948331264096</v>
+        <v>12.88228926015658</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3894897972939492</v>
+        <v>0.3838894389994782</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3087781323507825</v>
+        <v>0.3204380531030639</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3699545611404557</v>
+        <v>0.3744569375611221</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.382327297668128</v>
+        <v>0.3827853220881913</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>13.14720385659184</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.027710396062263</v>
+        <v>5.027710396062268</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2775411852547109</v>
@@ -849,7 +849,7 @@
         <v>0.2820829022412274</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1536764845825509</v>
+        <v>0.1536764845825511</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.175136081917033</v>
+        <v>7.345735292721106</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.721810631279766</v>
+        <v>4.760500935070154</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.434539072679673</v>
+        <v>8.109758781897893</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8424559907000634</v>
+        <v>0.8020539986856871</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1604541557365932</v>
+        <v>0.1683255778272797</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08054718980607724</v>
+        <v>0.08028887992526366</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1718337886677004</v>
+        <v>0.1631907964722881</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.02487306939830589</v>
+        <v>0.02007967233444122</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.10634611551773</v>
+        <v>16.1123837482775</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.80675452447076</v>
+        <v>14.08044740895821</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18.23531753616519</v>
+        <v>17.73008670226506</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.749495696146862</v>
+        <v>8.885046435628565</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4055639335842688</v>
+        <v>0.4048266985039068</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2529543073577824</v>
+        <v>0.2610525305731604</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4173601400963141</v>
+        <v>0.4031046583856872</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2840465974934583</v>
+        <v>0.289724853582782</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>9.797895337043371</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.733833512162003</v>
+        <v>1.733833512162009</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4682061554425554</v>
@@ -949,7 +949,7 @@
         <v>0.2142868151689355</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.06771121415923192</v>
+        <v>0.06771121415923215</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>10.43947244639982</v>
+        <v>10.94514964341229</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.107872950109197</v>
+        <v>7.554421651520389</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.134280995338576</v>
+        <v>3.649879733765829</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.131504284552352</v>
+        <v>-2.209648322477704</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2480182766141363</v>
+        <v>0.2592255189230137</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1608851091833812</v>
+        <v>0.148830534121868</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0635962029154323</v>
+        <v>0.07511520167344692</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.07675037245781846</v>
+        <v>-0.08135650118480009</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>24.39723539412685</v>
+        <v>25.33931371793799</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>20.26825195866859</v>
+        <v>20.92219153806472</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.26948062242493</v>
+        <v>16.35761920528261</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.644538510331096</v>
+        <v>5.881426789829999</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6860704661089335</v>
+        <v>0.7114954911386625</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4652565727960186</v>
+        <v>0.4765324699557528</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3829795518565087</v>
+        <v>0.3889891092357546</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2384814206640925</v>
+        <v>0.2542097115191125</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>11.73759747390855</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.771948571291198</v>
+        <v>6.771948571291203</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3597538534518419</v>
@@ -1049,7 +1049,7 @@
         <v>0.2372282725804719</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2060697749935444</v>
+        <v>0.2060697749935446</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>13.64791922012994</v>
+        <v>13.38324148134474</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11.47952630080818</v>
+        <v>11.34231906609267</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.50519966803007</v>
+        <v>9.360890989343089</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.512234435433505</v>
+        <v>4.614996576064395</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2991846457524273</v>
+        <v>0.2944305176363013</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2097778955012976</v>
+        <v>0.2070186523304433</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1884742571575751</v>
+        <v>0.1855801174379208</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1313873347813139</v>
+        <v>0.1312184862273339</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.35849529561154</v>
+        <v>18.26977231456961</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.05263282308111</v>
+        <v>16.28870312440035</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.18133522474228</v>
+        <v>14.19312611727579</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.986252253092262</v>
+        <v>8.843300648210541</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4261535041321189</v>
+        <v>0.4226322036197315</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.308099868724353</v>
+        <v>0.3111623845803677</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.295533856872892</v>
+        <v>0.2943425604646263</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2850916229384646</v>
+        <v>0.277914449243008</v>
       </c>
     </row>
     <row r="19">
